--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H2">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I2">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J2">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.082080666666666</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N2">
-        <v>9.246241999999999</v>
+        <v>0.146159</v>
       </c>
       <c r="O2">
-        <v>0.822428495022819</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P2">
-        <v>0.8679967027127143</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q2">
-        <v>124.8172891693707</v>
+        <v>3.87445544956275</v>
       </c>
       <c r="R2">
-        <v>748.903735016224</v>
+        <v>15.497821798251</v>
       </c>
       <c r="S2">
-        <v>0.356792298341251</v>
+        <v>0.01424727932487695</v>
       </c>
       <c r="T2">
-        <v>0.3080542848290077</v>
+        <v>0.009584985339229751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H3">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I3">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J3">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01806466666666667</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N3">
-        <v>0.05419400000000001</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O3">
-        <v>0.004820411347579554</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P3">
-        <v>0.005087495363717806</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q3">
-        <v>0.7315781015946669</v>
+        <v>163.402653753223</v>
       </c>
       <c r="R3">
-        <v>4.389468609568</v>
+        <v>980.4159225193379</v>
       </c>
       <c r="S3">
-        <v>0.002091228178573064</v>
+        <v>0.6008697946729653</v>
       </c>
       <c r="T3">
-        <v>0.001805565321784055</v>
+        <v>0.6063608399959657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H4">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I4">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J4">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.590216</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N4">
-        <v>1.180432</v>
+        <v>0.021442</v>
       </c>
       <c r="O4">
-        <v>0.1574944036566601</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P4">
-        <v>0.1108137861605369</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q4">
-        <v>23.902411750976</v>
+        <v>0.378930132023</v>
       </c>
       <c r="R4">
-        <v>95.609647003904</v>
+        <v>2.273580792138</v>
       </c>
       <c r="S4">
-        <v>0.0683254417820061</v>
+        <v>0.001393414766494076</v>
       </c>
       <c r="T4">
-        <v>0.03932810060014384</v>
+        <v>0.001406148479695156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H5">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I5">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J5">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.057175</v>
+        <v>0.6418275</v>
       </c>
       <c r="N5">
-        <v>0.171525</v>
+        <v>1.283655</v>
       </c>
       <c r="O5">
-        <v>0.01525668997294134</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P5">
-        <v>0.0161020157630309</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q5">
-        <v>2.3154580558</v>
+        <v>34.02776503744875</v>
       </c>
       <c r="R5">
-        <v>13.8927483348</v>
+        <v>136.111060149795</v>
       </c>
       <c r="S5">
-        <v>0.006618775387123016</v>
+        <v>0.1251280546649534</v>
       </c>
       <c r="T5">
-        <v>0.005714647226981032</v>
+        <v>0.08418102447080894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.464838333333333</v>
+        <v>53.0169945</v>
       </c>
       <c r="H6">
-        <v>19.394515</v>
+        <v>106.033989</v>
       </c>
       <c r="I6">
-        <v>0.06925390168635236</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J6">
-        <v>0.08498208097388053</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.082080666666666</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N6">
-        <v>9.246241999999999</v>
+        <v>0.040064</v>
       </c>
       <c r="O6">
-        <v>0.822428495022819</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P6">
-        <v>0.8679967027127143</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q6">
-        <v>19.92515324029222</v>
+        <v>0.708024289216</v>
       </c>
       <c r="R6">
-        <v>179.32637916263</v>
+        <v>4.248145735296</v>
       </c>
       <c r="S6">
-        <v>0.05695638213836503</v>
+        <v>0.002603570991736717</v>
       </c>
       <c r="T6">
-        <v>0.0737641660749932</v>
+        <v>0.002627363710964776</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>19.394515</v>
       </c>
       <c r="I7">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J7">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01806466666666667</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N7">
-        <v>0.05419400000000001</v>
+        <v>0.146159</v>
       </c>
       <c r="O7">
-        <v>0.004820411347579554</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P7">
-        <v>0.005087495363717806</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q7">
-        <v>0.1167851495455556</v>
+        <v>0.4724471529808333</v>
       </c>
       <c r="R7">
-        <v>1.05106634591</v>
+        <v>2.834682917885</v>
       </c>
       <c r="S7">
-        <v>0.0003338322935530517</v>
+        <v>0.001737298735883113</v>
       </c>
       <c r="T7">
-        <v>0.0004323459429537084</v>
+        <v>0.001753175030852338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>19.394515</v>
       </c>
       <c r="I8">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J8">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.590216</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N8">
-        <v>1.180432</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O8">
-        <v>0.1574944036566601</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P8">
-        <v>0.1108137861605369</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q8">
-        <v>3.815651021746666</v>
+        <v>19.92515324029222</v>
       </c>
       <c r="R8">
-        <v>22.89390613048</v>
+        <v>179.32637916263</v>
       </c>
       <c r="S8">
-        <v>0.01090710194698903</v>
+        <v>0.07326945102374513</v>
       </c>
       <c r="T8">
-        <v>0.009417186148517026</v>
+        <v>0.1109085352500919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>19.394515</v>
       </c>
       <c r="I9">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J9">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.057175</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N9">
-        <v>0.171525</v>
+        <v>0.021442</v>
       </c>
       <c r="O9">
-        <v>0.01525668997294134</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P9">
-        <v>0.0161020157630309</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q9">
-        <v>0.3696271317083333</v>
+        <v>0.04620635451444444</v>
       </c>
       <c r="R9">
-        <v>3.326644185374999</v>
+        <v>0.4158571906299999</v>
       </c>
       <c r="S9">
-        <v>0.001056585307445237</v>
+        <v>0.0001699115780066262</v>
       </c>
       <c r="T9">
-        <v>0.001368382807416592</v>
+        <v>0.0002571964710454767</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7642823333333334</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H10">
-        <v>2.292847</v>
+        <v>19.394515</v>
       </c>
       <c r="I10">
-        <v>0.008187294228282994</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J10">
-        <v>0.01004670183372562</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.082080666666666</v>
+        <v>0.6418275</v>
       </c>
       <c r="N10">
-        <v>9.246241999999999</v>
+        <v>1.283655</v>
       </c>
       <c r="O10">
-        <v>0.822428495022819</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P10">
-        <v>0.8679967027127143</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q10">
-        <v>2.355579803441556</v>
+        <v>4.149311025387499</v>
       </c>
       <c r="R10">
-        <v>21.200218230974</v>
+        <v>24.895866152325</v>
       </c>
       <c r="S10">
-        <v>0.006733464070475795</v>
+        <v>0.01525798759440087</v>
       </c>
       <c r="T10">
-        <v>0.008720504064811622</v>
+        <v>0.01539742263034611</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7642823333333334</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H11">
-        <v>2.292847</v>
+        <v>19.394515</v>
       </c>
       <c r="I11">
-        <v>0.008187294228282994</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J11">
-        <v>0.01004670183372562</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.01806466666666667</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N11">
-        <v>0.05419400000000001</v>
+        <v>0.040064</v>
       </c>
       <c r="O11">
-        <v>0.004820411347579554</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P11">
-        <v>0.005087495363717806</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q11">
-        <v>0.01380650559088889</v>
+        <v>0.08633576099555555</v>
       </c>
       <c r="R11">
-        <v>0.124258550318</v>
+        <v>0.7770218489599999</v>
       </c>
       <c r="S11">
-        <v>3.946612600398794E-05</v>
+        <v>0.0003174767960664803</v>
       </c>
       <c r="T11">
-        <v>5.111254899973429E-05</v>
+        <v>0.0004805670840390812</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H12">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I12">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J12">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.590216</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N12">
-        <v>1.180432</v>
+        <v>0.146159</v>
       </c>
       <c r="O12">
-        <v>0.1574944036566601</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P12">
-        <v>0.1108137861605369</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q12">
-        <v>0.4510916616506667</v>
+        <v>0.04961413538683333</v>
       </c>
       <c r="R12">
-        <v>2.706549969904</v>
+        <v>0.297684812321</v>
       </c>
       <c r="S12">
-        <v>0.001289453022045046</v>
+        <v>0.0001824427857076662</v>
       </c>
       <c r="T12">
-        <v>0.001113313068621145</v>
+        <v>0.0001841100381042033</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H13">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I13">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J13">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.057175</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N13">
-        <v>0.171525</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O13">
-        <v>0.01525668997294134</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P13">
-        <v>0.0161020157630309</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q13">
-        <v>0.04369784240833333</v>
+        <v>2.092444084444222</v>
       </c>
       <c r="R13">
-        <v>0.393280581675</v>
+        <v>18.831996759998</v>
       </c>
       <c r="S13">
-        <v>0.0001249110097581656</v>
+        <v>0.007694406538118181</v>
       </c>
       <c r="T13">
-        <v>0.0001617721512931214</v>
+        <v>0.01164708274509736</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.332808</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H14">
-        <v>22.665616</v>
+        <v>2.036719</v>
       </c>
       <c r="I14">
-        <v>0.1214015154896589</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J14">
-        <v>0.09931525558823628</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.082080666666666</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N14">
-        <v>9.246241999999999</v>
+        <v>0.021442</v>
       </c>
       <c r="O14">
-        <v>0.822428495022819</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P14">
-        <v>0.8679967027127143</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q14">
-        <v>34.92862843584533</v>
+        <v>0.004852369866444444</v>
       </c>
       <c r="R14">
-        <v>209.571770615072</v>
+        <v>0.04367132879799999</v>
       </c>
       <c r="S14">
-        <v>0.09984406567764965</v>
+        <v>1.78432994713236E-05</v>
       </c>
       <c r="T14">
-        <v>0.08620531437965957</v>
+        <v>2.700954054851448E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.332808</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H15">
-        <v>22.665616</v>
+        <v>2.036719</v>
       </c>
       <c r="I15">
-        <v>0.1214015154896589</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J15">
-        <v>0.09931525558823628</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.01806466666666667</v>
+        <v>0.6418275</v>
       </c>
       <c r="N15">
-        <v>0.05419400000000001</v>
+        <v>1.283655</v>
       </c>
       <c r="O15">
-        <v>0.004820411347579554</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P15">
-        <v>0.005087495363717806</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q15">
-        <v>0.2047233989173334</v>
+        <v>0.4357407546575</v>
       </c>
       <c r="R15">
-        <v>1.228340393504</v>
+        <v>2.614444527944999</v>
       </c>
       <c r="S15">
-        <v>0.0005852052428797069</v>
+        <v>0.001602320719815915</v>
       </c>
       <c r="T15">
-        <v>0.000505265902351601</v>
+        <v>0.00161696351892563</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.332808</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H16">
-        <v>22.665616</v>
+        <v>2.036719</v>
       </c>
       <c r="I16">
-        <v>0.1214015154896589</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J16">
-        <v>0.09931525558823628</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.590216</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N16">
-        <v>1.180432</v>
+        <v>0.040064</v>
       </c>
       <c r="O16">
-        <v>0.1574944036566601</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P16">
-        <v>0.1108137861605369</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q16">
-        <v>6.688804606528</v>
+        <v>0.009066567779555555</v>
       </c>
       <c r="R16">
-        <v>26.755218426112</v>
+        <v>0.081599110016</v>
       </c>
       <c r="S16">
-        <v>0.01912005928505862</v>
+        <v>3.333989133565473E-05</v>
       </c>
       <c r="T16">
-        <v>0.01100549949523388</v>
+        <v>5.046685162464714E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H17">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I17">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J17">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.057175</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N17">
-        <v>0.171525</v>
+        <v>0.146159</v>
       </c>
       <c r="O17">
-        <v>0.01525668997294134</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P17">
-        <v>0.0161020157630309</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q17">
-        <v>0.6479532974</v>
+        <v>0.7387973879487501</v>
       </c>
       <c r="R17">
-        <v>3.8877197844</v>
+        <v>2.955189551795</v>
       </c>
       <c r="S17">
-        <v>0.001852185284070962</v>
+        <v>0.002716730876795399</v>
       </c>
       <c r="T17">
-        <v>0.001599175810991223</v>
+        <v>0.001827705138008276</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.754358</v>
+        <v>10.1095025</v>
       </c>
       <c r="H18">
-        <v>101.263074</v>
+        <v>20.219005</v>
       </c>
       <c r="I18">
-        <v>0.3615900150766246</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J18">
-        <v>0.4437103353361534</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,27 +1559,27 @@
         <v>9.246241999999999</v>
       </c>
       <c r="O18">
-        <v>0.822428495022819</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P18">
-        <v>0.8679967027127143</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q18">
-        <v>104.0336542075453</v>
+        <v>31.15830220486833</v>
       </c>
       <c r="R18">
-        <v>936.3028878679078</v>
+        <v>186.94981322921</v>
       </c>
       <c r="S18">
-        <v>0.2973819319147468</v>
+        <v>0.1145763683646916</v>
       </c>
       <c r="T18">
-        <v>0.3851391080313339</v>
+        <v>0.11562342387857</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,57 +1591,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.754358</v>
+        <v>10.1095025</v>
       </c>
       <c r="H19">
-        <v>101.263074</v>
+        <v>20.219005</v>
       </c>
       <c r="I19">
-        <v>0.3615900150766246</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J19">
-        <v>0.4437103353361534</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.01806466666666667</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N19">
-        <v>0.05419400000000001</v>
+        <v>0.021442</v>
       </c>
       <c r="O19">
-        <v>0.004820411347579554</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P19">
-        <v>0.005087495363717806</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q19">
-        <v>0.6097612258173334</v>
+        <v>0.07225598420166666</v>
       </c>
       <c r="R19">
-        <v>5.487851032356</v>
+        <v>0.43353590521</v>
       </c>
       <c r="S19">
-        <v>0.001743012611846823</v>
+        <v>0.0002657021620757619</v>
       </c>
       <c r="T19">
-        <v>0.002257374273856353</v>
+        <v>0.0002681302798265824</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.754358</v>
+        <v>10.1095025</v>
       </c>
       <c r="H20">
-        <v>101.263074</v>
+        <v>20.219005</v>
       </c>
       <c r="I20">
-        <v>0.3615900150766246</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J20">
-        <v>0.4437103353361534</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.590216</v>
+        <v>0.6418275</v>
       </c>
       <c r="N20">
-        <v>1.180432</v>
+        <v>1.283655</v>
       </c>
       <c r="O20">
-        <v>0.1574944036566601</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P20">
-        <v>0.1108137861605369</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q20">
-        <v>19.922362161328</v>
+        <v>6.48855671581875</v>
       </c>
       <c r="R20">
-        <v>119.534172967968</v>
+        <v>25.954226863275</v>
       </c>
       <c r="S20">
-        <v>0.05694840379269575</v>
+        <v>0.02385994139021748</v>
       </c>
       <c r="T20">
-        <v>0.04916922221716061</v>
+        <v>0.01605199022249751</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,25 +1712,25 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.754358</v>
+        <v>10.1095025</v>
       </c>
       <c r="H21">
-        <v>101.263074</v>
+        <v>20.219005</v>
       </c>
       <c r="I21">
-        <v>0.3615900150766246</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J21">
-        <v>0.4437103353361534</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.057175</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N21">
-        <v>0.171525</v>
+        <v>0.040064</v>
       </c>
       <c r="O21">
-        <v>0.01525668997294134</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P21">
-        <v>0.0161020157630309</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q21">
-        <v>1.92990541865</v>
+        <v>0.1350090360533333</v>
       </c>
       <c r="R21">
-        <v>17.36914876785</v>
+        <v>0.81005421632</v>
       </c>
       <c r="S21">
-        <v>0.005516666757335246</v>
+        <v>0.0004964598181794296</v>
       </c>
       <c r="T21">
-        <v>0.007144630813802467</v>
+        <v>0.0005009967135049062</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.535784</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H22">
-        <v>1.607352</v>
+        <v>1.586671</v>
       </c>
       <c r="I22">
-        <v>0.00573952983012784</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J22">
-        <v>0.007043028290087628</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.082080666666666</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N22">
-        <v>9.246241999999999</v>
+        <v>0.146159</v>
       </c>
       <c r="O22">
-        <v>0.822428495022819</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P22">
-        <v>0.8679967027127143</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q22">
-        <v>1.651329507909333</v>
+        <v>0.03865104111483333</v>
       </c>
       <c r="R22">
-        <v>14.861965571184</v>
+        <v>0.231906246689</v>
       </c>
       <c r="S22">
-        <v>0.004720352880330615</v>
+        <v>0.0001421289226651141</v>
       </c>
       <c r="T22">
-        <v>0.006113325332908428</v>
+        <v>0.0001434277670453482</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.535784</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H23">
-        <v>1.607352</v>
+        <v>1.586671</v>
       </c>
       <c r="I23">
-        <v>0.00573952983012784</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J23">
-        <v>0.007043028290087628</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.01806466666666667</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N23">
-        <v>0.05419400000000001</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O23">
-        <v>0.004820411347579554</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P23">
-        <v>0.005087495363717806</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q23">
-        <v>0.009678759365333335</v>
+        <v>1.630082671153555</v>
       </c>
       <c r="R23">
-        <v>0.08710883428800002</v>
+        <v>14.670744040382</v>
       </c>
       <c r="S23">
-        <v>2.766689472291959E-05</v>
+        <v>0.005994195427176019</v>
       </c>
       <c r="T23">
-        <v>3.583137377235416E-05</v>
+        <v>0.009073460023815937</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.535784</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H24">
-        <v>1.607352</v>
+        <v>1.586671</v>
       </c>
       <c r="I24">
-        <v>0.00573952983012784</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J24">
-        <v>0.007043028290087628</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.590216</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N24">
-        <v>1.180432</v>
+        <v>0.021442</v>
       </c>
       <c r="O24">
-        <v>0.1574944036566601</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P24">
-        <v>0.1108137861605369</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q24">
-        <v>0.316228289344</v>
+        <v>0.003780155509111111</v>
       </c>
       <c r="R24">
-        <v>1.897369736064</v>
+        <v>0.034021399582</v>
       </c>
       <c r="S24">
-        <v>0.0009039438278655961</v>
+        <v>1.390051637730315E-05</v>
       </c>
       <c r="T24">
-        <v>0.0007804646308603821</v>
+        <v>2.104131925496449E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5288903333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.586671</v>
+      </c>
+      <c r="I25">
+        <v>0.007424458207958987</v>
+      </c>
+      <c r="J25">
+        <v>0.01053691213795238</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6418275</v>
+      </c>
+      <c r="N25">
+        <v>1.283655</v>
+      </c>
+      <c r="O25">
+        <v>0.1681281564700153</v>
+      </c>
+      <c r="P25">
+        <v>0.1195480873591231</v>
+      </c>
+      <c r="Q25">
+        <v>0.3394563604175</v>
+      </c>
+      <c r="R25">
+        <v>2.036738162505</v>
+      </c>
+      <c r="S25">
+        <v>0.001248260471292818</v>
+      </c>
+      <c r="T25">
+        <v>0.001259667692763336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.535784</v>
-      </c>
-      <c r="H25">
-        <v>1.607352</v>
-      </c>
-      <c r="I25">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="J25">
-        <v>0.007043028290087628</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5288903333333334</v>
+      </c>
+      <c r="H26">
+        <v>1.586671</v>
+      </c>
+      <c r="I26">
+        <v>0.007424458207958987</v>
+      </c>
+      <c r="J26">
+        <v>0.01053691213795238</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M25">
-        <v>0.057175</v>
-      </c>
-      <c r="N25">
-        <v>0.171525</v>
-      </c>
-      <c r="O25">
-        <v>0.01525668997294134</v>
-      </c>
-      <c r="P25">
-        <v>0.0161020157630309</v>
-      </c>
-      <c r="Q25">
-        <v>0.0306334502</v>
-      </c>
-      <c r="R25">
-        <v>0.2757010518</v>
-      </c>
-      <c r="S25">
-        <v>8.75662272087091E-05</v>
-      </c>
-      <c r="T25">
-        <v>0.0001134069525464635</v>
+      <c r="M26">
+        <v>0.01335466666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.040064</v>
+      </c>
+      <c r="O26">
+        <v>0.003498284954973465</v>
+      </c>
+      <c r="P26">
+        <v>0.003731200807036086</v>
+      </c>
+      <c r="Q26">
+        <v>0.00706315410488889</v>
+      </c>
+      <c r="R26">
+        <v>0.06356838694400001</v>
+      </c>
+      <c r="S26">
+        <v>2.597287044773218E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.931533507279626E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4370873333333334</v>
+      </c>
+      <c r="H27">
+        <v>1.311262</v>
+      </c>
+      <c r="I27">
+        <v>0.006135745796503949</v>
+      </c>
+      <c r="J27">
+        <v>0.008707950472300633</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.07307950000000001</v>
+      </c>
+      <c r="N27">
+        <v>0.146159</v>
+      </c>
+      <c r="O27">
+        <v>0.01914333930962835</v>
+      </c>
+      <c r="P27">
+        <v>0.01361193537229401</v>
+      </c>
+      <c r="Q27">
+        <v>0.03194212377633334</v>
+      </c>
+      <c r="R27">
+        <v>0.191652742658</v>
+      </c>
+      <c r="S27">
+        <v>0.0001174586637001009</v>
+      </c>
+      <c r="T27">
+        <v>0.0001185320590540933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4370873333333334</v>
+      </c>
+      <c r="H28">
+        <v>1.311262</v>
+      </c>
+      <c r="I28">
+        <v>0.006135745796503949</v>
+      </c>
+      <c r="J28">
+        <v>0.008707950472300633</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N28">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.8073579592313238</v>
+      </c>
+      <c r="P28">
+        <v>0.8611118613331405</v>
+      </c>
+      <c r="Q28">
+        <v>1.347138419711555</v>
+      </c>
+      <c r="R28">
+        <v>12.124245777404</v>
+      </c>
+      <c r="S28">
+        <v>0.004953743204627602</v>
+      </c>
+      <c r="T28">
+        <v>0.007498519439599598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4370873333333334</v>
+      </c>
+      <c r="H29">
+        <v>1.311262</v>
+      </c>
+      <c r="I29">
+        <v>0.006135745796503949</v>
+      </c>
+      <c r="J29">
+        <v>0.008707950472300633</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.021442</v>
+      </c>
+      <c r="O29">
+        <v>0.001872260034059031</v>
+      </c>
+      <c r="P29">
+        <v>0.001996915128406244</v>
+      </c>
+      <c r="Q29">
+        <v>0.003124008867111111</v>
+      </c>
+      <c r="R29">
+        <v>0.028116079804</v>
+      </c>
+      <c r="S29">
+        <v>1.148771163394004E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.738903803554943E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4370873333333334</v>
+      </c>
+      <c r="H30">
+        <v>1.311262</v>
+      </c>
+      <c r="I30">
+        <v>0.006135745796503949</v>
+      </c>
+      <c r="J30">
+        <v>0.008707950472300633</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6418275</v>
+      </c>
+      <c r="N30">
+        <v>1.283655</v>
+      </c>
+      <c r="O30">
+        <v>0.1681281564700153</v>
+      </c>
+      <c r="P30">
+        <v>0.1195480873591231</v>
+      </c>
+      <c r="Q30">
+        <v>0.280534670435</v>
+      </c>
+      <c r="R30">
+        <v>1.68320802261</v>
+      </c>
+      <c r="S30">
+        <v>0.001031591629334855</v>
+      </c>
+      <c r="T30">
+        <v>0.001041018823781513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4370873333333334</v>
+      </c>
+      <c r="H31">
+        <v>1.311262</v>
+      </c>
+      <c r="I31">
+        <v>0.006135745796503949</v>
+      </c>
+      <c r="J31">
+        <v>0.008707950472300633</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.01335466666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.040064</v>
+      </c>
+      <c r="O31">
+        <v>0.003498284954973465</v>
+      </c>
+      <c r="P31">
+        <v>0.003731200807036086</v>
+      </c>
+      <c r="Q31">
+        <v>0.00583715564088889</v>
+      </c>
+      <c r="R31">
+        <v>0.05253440076800001</v>
+      </c>
+      <c r="S31">
+        <v>2.146458720745145E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.249111182987838E-05</v>
       </c>
     </row>
   </sheetData>
